--- a/Data/EC/NIT-8001475789.xlsx
+++ b/Data/EC/NIT-8001475789.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2963246F-82F1-4411-963E-9CFDCB4AC85E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D29AE161-8E21-4FC4-A4E8-E8ADF69934B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{70E1E0B4-21A8-48FE-A6C6-EBACA2A5EE5A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A522D6E1-0133-41AB-86A8-8F53E09E8C2E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,37 +71,37 @@
     <t>JHONATHAN LOPEZ PEREZ</t>
   </si>
   <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
     <t>1902</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1912</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -515,7 +515,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0701FB0E-96AD-D4CC-F1A1-3BC512981EDC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6173FC7-707C-673B-54A3-483CA8BF9AC3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -866,7 +866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AFAE054-4C69-4E35-B355-967DE5B09ADF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBE97DDB-AA1F-4787-8EF3-AFEB99661300}">
   <dimension ref="B2:J32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1044,7 +1044,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>30400</v>
+        <v>38000</v>
       </c>
       <c r="G16" s="18">
         <v>950000</v>
@@ -1274,7 +1274,7 @@
         <v>21</v>
       </c>
       <c r="F26" s="24">
-        <v>38000</v>
+        <v>30400</v>
       </c>
       <c r="G26" s="24">
         <v>950000</v>
